--- a/SuppXLS/Scen_ZZ_BNDCAP.xlsx
+++ b/SuppXLS/Scen_ZZ_BNDCAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_04\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD6D222-D4D2-4F7A-841B-9D589C1A90FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85FE637-96F0-4830-A493-87D2F3845EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG_BNDCAP" sheetId="11" r:id="rId1"/>
@@ -821,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD91602C-CE79-4766-9C2B-CAE327A9A0D0}">
   <dimension ref="B4:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
